--- a/룸메이트 함수명.xlsx
+++ b/룸메이트 함수명.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8703F8-2FC5-4057-998D-ED1351BF0A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC456E39-E752-48C2-8163-F41086EF37C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="122">
   <si>
     <t>아이디</t>
   </si>
@@ -58,60 +63,96 @@
     <t>dom</t>
   </si>
   <si>
+    <t>넘버만 같으면 ㅇㅋ</t>
+  </si>
+  <si>
     <t>생년</t>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
+    <t>agehigh</t>
+  </si>
+  <si>
+    <t>agelow</t>
+  </si>
+  <si>
     <t>학번</t>
   </si>
   <si>
     <t>hakbun</t>
   </si>
   <si>
+    <t>hakbun high</t>
+  </si>
+  <si>
+    <t>hakbunlow</t>
+  </si>
+  <si>
     <t>단과</t>
   </si>
   <si>
     <t>department</t>
   </si>
   <si>
+    <t>같으면 1</t>
+  </si>
+  <si>
     <t>취침시간</t>
   </si>
   <si>
     <t>sleep</t>
   </si>
   <si>
+    <t>10~03</t>
+  </si>
+  <si>
     <t>기상시간</t>
   </si>
   <si>
     <t>wake</t>
   </si>
   <si>
+    <t>7~12</t>
+  </si>
+  <si>
     <t>샤워소요시간</t>
   </si>
   <si>
     <t>showertime</t>
   </si>
   <si>
+    <t>5 10 15 20 25 30+</t>
+  </si>
+  <si>
     <t>샤워시간</t>
   </si>
   <si>
     <t>whenshower</t>
   </si>
   <si>
+    <t>아침 저녁 유동적</t>
+  </si>
+  <si>
     <t>잠귀</t>
   </si>
   <si>
     <t>sensitive</t>
   </si>
   <si>
+    <t>어두움 보통 밝음</t>
+  </si>
+  <si>
     <t>이갈이</t>
   </si>
   <si>
     <t>jamb1</t>
   </si>
   <si>
+    <t>0 1</t>
+  </si>
+  <si>
     <t>잠꼬대</t>
   </si>
   <si>
@@ -127,24 +168,36 @@
     <t>sleeplight</t>
   </si>
   <si>
+    <t>안씀 형광등 스탠드 무드드</t>
+  </si>
+  <si>
     <t>알람</t>
   </si>
   <si>
     <t>alarmhear</t>
   </si>
   <si>
+    <t>못듣 중간 잘듣</t>
+  </si>
+  <si>
     <t>청소</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>자주 보통 한버</t>
+  </si>
+  <si>
     <t>더위</t>
   </si>
   <si>
     <t>heat</t>
   </si>
   <si>
+    <t>적게 보통 많이</t>
+  </si>
+  <si>
     <t>추위</t>
   </si>
   <si>
@@ -157,103 +210,213 @@
     <t>soundgigi</t>
   </si>
   <si>
+    <t>이어폰 스피커 유동</t>
+  </si>
+  <si>
     <t>흡연여부</t>
   </si>
   <si>
     <t>smoking</t>
   </si>
   <si>
+    <t>흡연 비흡연</t>
+  </si>
+  <si>
     <t>실내통화</t>
   </si>
   <si>
     <t>silnaecall</t>
   </si>
   <si>
+    <t>반대 상관없 찬성 간단용무</t>
+  </si>
+  <si>
     <t>친구초대</t>
   </si>
   <si>
     <t>friendinvite</t>
   </si>
   <si>
+    <t>가능 불가</t>
+  </si>
+  <si>
     <t>기숙사식</t>
   </si>
   <si>
     <t>eatbob</t>
   </si>
   <si>
+    <t>같이 따로</t>
+  </si>
+  <si>
     <t>공부</t>
   </si>
   <si>
     <t>studytype</t>
   </si>
   <si>
+    <t>기숙사 도서관 유동적</t>
+  </si>
+  <si>
     <t>향수</t>
   </si>
   <si>
     <t>perfume</t>
   </si>
   <si>
+    <t>미사용 사용</t>
+  </si>
+  <si>
     <t>향민감도</t>
   </si>
   <si>
     <t>smellwell</t>
   </si>
   <si>
+    <t>민감 상관없음</t>
+  </si>
+  <si>
     <t>컴퓨터게임</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>안함 가끔 자주</t>
+  </si>
+  <si>
     <t>야식</t>
   </si>
   <si>
     <t>yasick</t>
   </si>
   <si>
+    <t xml:space="preserve">안먹음 가끔 자주 </t>
+  </si>
+  <si>
     <t>술</t>
   </si>
   <si>
     <t>sool</t>
   </si>
   <si>
+    <t>안마심 가끔 자주</t>
+  </si>
+  <si>
     <t>실내취식</t>
   </si>
   <si>
     <t>silnaeeat</t>
   </si>
   <si>
+    <t>불가 냄새x 가능</t>
+  </si>
+  <si>
     <t>벌레</t>
   </si>
   <si>
     <t>insect</t>
   </si>
   <si>
-    <t>룸메생년</t>
-  </si>
-  <si>
-    <t>룸메학번</t>
+    <t>혐오 못잡음 중간 잡음 귀여움</t>
+  </si>
+  <si>
+    <t>룸메생년상한</t>
+  </si>
+  <si>
+    <t>roomagehigh</t>
+  </si>
+  <si>
+    <t>96~03</t>
+  </si>
+  <si>
+    <t>룸메생년하한</t>
+  </si>
+  <si>
+    <t>roomagelow</t>
+  </si>
+  <si>
+    <t>룸메학번상한</t>
+  </si>
+  <si>
+    <t>roomhakbunhigh</t>
+  </si>
+  <si>
+    <t>14~21</t>
+  </si>
+  <si>
+    <t>룸메학번하한</t>
+  </si>
+  <si>
+    <t>roomhakbunlow</t>
   </si>
   <si>
     <t>룸메흡연여부</t>
   </si>
   <si>
+    <t>roomsmoking</t>
+  </si>
+  <si>
+    <t>흡연 비흡연 무관</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>룸메단과대</t>
   </si>
   <si>
+    <t>roomdepartment</t>
+  </si>
+  <si>
+    <t>같은과 다른과 무관</t>
+  </si>
+  <si>
+    <t>equal nonequal</t>
+  </si>
+  <si>
     <t>룸메소리</t>
+  </si>
+  <si>
+    <t>roomsoundgigi</t>
+  </si>
+  <si>
+    <t>이어폰 스피커 무관</t>
+  </si>
+  <si>
+    <t>1-3 높은순 정렬</t>
+  </si>
+  <si>
+    <t>룸메향수</t>
+  </si>
+  <si>
+    <t>roomperfume</t>
+  </si>
+  <si>
+    <t>사용 미사용</t>
+  </si>
+  <si>
+    <t>1 남자 2여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,8 +440,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -297,7 +461,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,312 +757,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/룸메이트 함수명.xlsx
+++ b/룸메이트 함수명.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24722"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC456E39-E752-48C2-8163-F41086EF37C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{034B90E2-AEDA-4CD1-BA1A-CF6F9F7B5645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="160">
   <si>
     <t>아이디</t>
   </si>
@@ -39,6 +34,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>텍스트 String으로</t>
+  </si>
+  <si>
     <t>비번</t>
   </si>
   <si>
@@ -57,13 +55,31 @@
     <t>gender</t>
   </si>
   <si>
+    <t>남자</t>
+  </si>
+  <si>
+    <t>여자</t>
+  </si>
+  <si>
     <t>기숙사</t>
   </si>
   <si>
     <t>dom</t>
   </si>
   <si>
-    <t>넘버만 같으면 ㅇㅋ</t>
+    <t>개성재</t>
+  </si>
+  <si>
+    <t>계영원</t>
+  </si>
+  <si>
+    <t>양성재</t>
+  </si>
+  <si>
+    <t>양진재</t>
+  </si>
+  <si>
+    <t>양현재</t>
   </si>
   <si>
     <t>생년</t>
@@ -72,10 +88,10 @@
     <t>age</t>
   </si>
   <si>
-    <t>agehigh</t>
-  </si>
-  <si>
-    <t>agelow</t>
+    <t>Int 4자릿수</t>
+  </si>
+  <si>
+    <t>1996~2003</t>
   </si>
   <si>
     <t>학번</t>
@@ -84,10 +100,10 @@
     <t>hakbun</t>
   </si>
   <si>
-    <t>hakbun high</t>
-  </si>
-  <si>
-    <t>hakbunlow</t>
+    <t>Int 그대로</t>
+  </si>
+  <si>
+    <t>14~21</t>
   </si>
   <si>
     <t>단과</t>
@@ -96,7 +112,40 @@
     <t>department</t>
   </si>
   <si>
-    <t>같으면 1</t>
+    <t>인문</t>
+  </si>
+  <si>
+    <t>사과</t>
+  </si>
+  <si>
+    <t>자과</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>공과</t>
+  </si>
+  <si>
+    <t>전정</t>
+  </si>
+  <si>
+    <t>농생</t>
+  </si>
+  <si>
+    <t>사범</t>
+  </si>
+  <si>
+    <t>생과</t>
+  </si>
+  <si>
+    <t>수의</t>
+  </si>
+  <si>
+    <t>의과</t>
+  </si>
+  <si>
+    <t>자율</t>
   </si>
   <si>
     <t>취침시간</t>
@@ -105,16 +154,13 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>10~03</t>
-  </si>
-  <si>
     <t>기상시간</t>
   </si>
   <si>
     <t>wake</t>
   </si>
   <si>
-    <t>7~12</t>
+    <t>오후</t>
   </si>
   <si>
     <t>샤워소요시간</t>
@@ -123,7 +169,7 @@
     <t>showertime</t>
   </si>
   <si>
-    <t>5 10 15 20 25 30+</t>
+    <t>30+</t>
   </si>
   <si>
     <t>샤워시간</t>
@@ -132,7 +178,13 @@
     <t>whenshower</t>
   </si>
   <si>
-    <t>아침 저녁 유동적</t>
+    <t>아침</t>
+  </si>
+  <si>
+    <t>저녁</t>
+  </si>
+  <si>
+    <t>유동적</t>
   </si>
   <si>
     <t>잠귀</t>
@@ -141,7 +193,13 @@
     <t>sensitive</t>
   </si>
   <si>
-    <t>어두움 보통 밝음</t>
+    <t>어두움</t>
+  </si>
+  <si>
+    <t>보통</t>
+  </si>
+  <si>
+    <t>밝음</t>
   </si>
   <si>
     <t>이갈이</t>
@@ -150,7 +208,10 @@
     <t>jamb1</t>
   </si>
   <si>
-    <t>0 1</t>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>있음</t>
   </si>
   <si>
     <t>잠꼬대</t>
@@ -168,7 +229,16 @@
     <t>sleeplight</t>
   </si>
   <si>
-    <t>안씀 형광등 스탠드 무드드</t>
+    <t>안씀</t>
+  </si>
+  <si>
+    <t>형광등</t>
+  </si>
+  <si>
+    <t>스탠드</t>
+  </si>
+  <si>
+    <t>무드등</t>
   </si>
   <si>
     <t>알람</t>
@@ -177,7 +247,13 @@
     <t>alarmhear</t>
   </si>
   <si>
-    <t>못듣 중간 잘듣</t>
+    <t>못듣</t>
+  </si>
+  <si>
+    <t>중간</t>
+  </si>
+  <si>
+    <t>잘듣</t>
   </si>
   <si>
     <t>청소</t>
@@ -186,7 +262,10 @@
     <t>clean</t>
   </si>
   <si>
-    <t>자주 보통 한버</t>
+    <t>자주</t>
+  </si>
+  <si>
+    <t>한번에</t>
   </si>
   <si>
     <t>더위</t>
@@ -195,7 +274,10 @@
     <t>heat</t>
   </si>
   <si>
-    <t>적게 보통 많이</t>
+    <t>적게탐</t>
+  </si>
+  <si>
+    <t>많이탐</t>
   </si>
   <si>
     <t>추위</t>
@@ -210,7 +292,13 @@
     <t>soundgigi</t>
   </si>
   <si>
-    <t>이어폰 스피커 유동</t>
+    <t>이어폰</t>
+  </si>
+  <si>
+    <t>스피커</t>
+  </si>
+  <si>
+    <t>유동</t>
   </si>
   <si>
     <t>흡연여부</t>
@@ -219,7 +307,10 @@
     <t>smoking</t>
   </si>
   <si>
-    <t>흡연 비흡연</t>
+    <t>흡연</t>
+  </si>
+  <si>
+    <t>비흡연</t>
   </si>
   <si>
     <t>실내통화</t>
@@ -228,7 +319,16 @@
     <t>silnaecall</t>
   </si>
   <si>
-    <t>반대 상관없 찬성 간단용무</t>
+    <t>반대</t>
+  </si>
+  <si>
+    <t>상관없음</t>
+  </si>
+  <si>
+    <t>찬성</t>
+  </si>
+  <si>
+    <t>간단한용무</t>
   </si>
   <si>
     <t>친구초대</t>
@@ -237,7 +337,10 @@
     <t>friendinvite</t>
   </si>
   <si>
-    <t>가능 불가</t>
+    <t>가능</t>
+  </si>
+  <si>
+    <t>불가</t>
   </si>
   <si>
     <t>기숙사식</t>
@@ -246,7 +349,10 @@
     <t>eatbob</t>
   </si>
   <si>
-    <t>같이 따로</t>
+    <t>같이</t>
+  </si>
+  <si>
+    <t>따로</t>
   </si>
   <si>
     <t>공부</t>
@@ -255,7 +361,7 @@
     <t>studytype</t>
   </si>
   <si>
-    <t>기숙사 도서관 유동적</t>
+    <t>도서관</t>
   </si>
   <si>
     <t>향수</t>
@@ -264,7 +370,10 @@
     <t>perfume</t>
   </si>
   <si>
-    <t>미사용 사용</t>
+    <t>미사용</t>
+  </si>
+  <si>
+    <t>사용</t>
   </si>
   <si>
     <t>향민감도</t>
@@ -273,7 +382,7 @@
     <t>smellwell</t>
   </si>
   <si>
-    <t>민감 상관없음</t>
+    <t>민감</t>
   </si>
   <si>
     <t>컴퓨터게임</t>
@@ -282,7 +391,13 @@
     <t>game</t>
   </si>
   <si>
-    <t>안함 가끔 자주</t>
+    <t>안함</t>
+  </si>
+  <si>
+    <t>가끔</t>
+  </si>
+  <si>
+    <t>충북대페이커</t>
   </si>
   <si>
     <t>야식</t>
@@ -291,7 +406,13 @@
     <t>yasick</t>
   </si>
   <si>
-    <t xml:space="preserve">안먹음 가끔 자주 </t>
+    <t>안먹음</t>
+  </si>
+  <si>
+    <t>가끔먹음</t>
+  </si>
+  <si>
+    <t>자주먹음</t>
   </si>
   <si>
     <t>술</t>
@@ -300,16 +421,13 @@
     <t>sool</t>
   </si>
   <si>
-    <t>안마심 가끔 자주</t>
-  </si>
-  <si>
     <t>실내취식</t>
   </si>
   <si>
     <t>silnaeeat</t>
   </si>
   <si>
-    <t>불가 냄새x 가능</t>
+    <t>냄새안나면 가능</t>
   </si>
   <si>
     <t>벌레</t>
@@ -318,7 +436,19 @@
     <t>insect</t>
   </si>
   <si>
-    <t>혐오 못잡음 중간 잡음 귀여움</t>
+    <t>혐오</t>
+  </si>
+  <si>
+    <t>못잡음</t>
+  </si>
+  <si>
+    <t>잡음</t>
+  </si>
+  <si>
+    <t>파브르</t>
+  </si>
+  <si>
+    <t>junk save</t>
   </si>
   <si>
     <t>룸메생년상한</t>
@@ -327,9 +457,6 @@
     <t>roomagehigh</t>
   </si>
   <si>
-    <t>96~03</t>
-  </si>
-  <si>
     <t>룸메생년하한</t>
   </si>
   <si>
@@ -342,9 +469,6 @@
     <t>roomhakbunhigh</t>
   </si>
   <si>
-    <t>14~21</t>
-  </si>
-  <si>
     <t>룸메학번하한</t>
   </si>
   <si>
@@ -357,10 +481,7 @@
     <t>roomsmoking</t>
   </si>
   <si>
-    <t>흡연 비흡연 무관</t>
-  </si>
-  <si>
-    <t>boolean</t>
+    <t>무관</t>
   </si>
   <si>
     <t>룸메단과대</t>
@@ -369,10 +490,10 @@
     <t>roomdepartment</t>
   </si>
   <si>
-    <t>같은과 다른과 무관</t>
-  </si>
-  <si>
-    <t>equal nonequal</t>
+    <t>같은과1</t>
+  </si>
+  <si>
+    <t>다른과</t>
   </si>
   <si>
     <t>룸메소리</t>
@@ -381,42 +502,22 @@
     <t>roomsoundgigi</t>
   </si>
   <si>
-    <t>이어폰 스피커 무관</t>
-  </si>
-  <si>
-    <t>1-3 높은순 정렬</t>
-  </si>
-  <si>
     <t>룸메향수</t>
   </si>
   <si>
     <t>roomperfume</t>
-  </si>
-  <si>
-    <t>사용 미사용</t>
-  </si>
-  <si>
-    <t>1 남자 2여자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -461,7 +562,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -757,64 +858,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>11</v>
+      </c>
+      <c r="P1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -824,424 +966,675 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H12">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
         <v>88</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="G45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" t="s">
         <v>114</v>
       </c>
-      <c r="C41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" t="s">
-        <v>109</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/룸메이트 함수명.xlsx
+++ b/룸메이트 함수명.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24722"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{034B90E2-AEDA-4CD1-BA1A-CF6F9F7B5645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92B7B29-5FD8-4FAB-8E55-C9096EB7DE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41040" yWindow="2715" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,12 +517,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -562,7 +574,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -860,18 +872,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E1">
         <v>1</v>
       </c>
@@ -909,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -920,7 +932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -931,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -942,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -956,7 +968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -979,35 +991,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1129,7 +1141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1177,7 +1189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1276,7 +1288,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -1344,7 +1356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -1358,7 +1370,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -1403,7 +1415,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -1417,7 +1429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -1485,7 +1497,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -1508,12 +1520,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -1527,7 +1539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -1555,7 +1567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -1603,7 +1615,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>158</v>
       </c>
@@ -1635,6 +1647,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>